--- a/biology/Médecine/Herman_Tarnower/Herman_Tarnower.xlsx
+++ b/biology/Médecine/Herman_Tarnower/Herman_Tarnower.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman Tarnower (Brooklyn, 18 mars 1910 - Purchase 10 mars 1980) est un cardiologue et nutritionniste américain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le livre qu'il publie en 1978 avec Samm Sinclair Baker (The Complete Scarsdale Medical Diet (en)) se vendit à des millions d'exemplaires et fit de lui le premier créateur de régime alimentaire à devenir richissime aux États-Unis.
-Il meurt assassiné par sa compagne Jean Harris (en)[1].
+Il meurt assassiné par sa compagne Jean Harris (en).
 </t>
         </is>
       </c>
